--- a/excel/specific_topic_scores.xlsx
+++ b/excel/specific_topic_scores.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="F21" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="basis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
-    <t>student number</t>
-  </si>
-  <si>
     <t>algebra</t>
   </si>
   <si>
@@ -41,6 +38,9 @@
   </si>
   <si>
     <t>topics</t>
+  </si>
+  <si>
+    <t>student nuber</t>
   </si>
 </sst>
 </file>
@@ -370,8 +370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,16 +383,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -474,7 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -487,18 +487,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>

--- a/excel/specific_topic_scores.xlsx
+++ b/excel/specific_topic_scores.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="F21" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>topics</t>
   </si>
   <si>
-    <t>student nuber</t>
+    <t>student number</t>
   </si>
 </sst>
 </file>
@@ -370,8 +370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,7 +420,7 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -428,10 +428,10 @@
         <v>201310584</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>40</v>
@@ -442,7 +442,7 @@
         <v>201710117</v>
       </c>
       <c r="B5" s="1">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>30</v>
@@ -456,7 +456,7 @@
         <v>201310916</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/excel/specific_topic_scores.xlsx
+++ b/excel/specific_topic_scores.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="F21" sheetId="1" r:id="rId1"/>
+    <sheet name="V21" sheetId="3" r:id="rId1"/>
     <sheet name="basis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -47,13 +47,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -82,12 +88,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,15 +375,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="26.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -397,13 +403,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>201512691</v>
+        <v>201511281</v>
       </c>
       <c r="B2">
         <v>19</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -411,13 +417,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>201410367</v>
+        <v>201511438</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>27</v>
@@ -425,7 +431,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>201310584</v>
+        <v>201411491</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -439,7 +445,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>201710117</v>
+        <v>201410679</v>
       </c>
       <c r="B5" s="1">
         <v>20</v>
@@ -452,8 +458,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>201310916</v>
+      <c r="A6" s="3">
+        <v>201411851</v>
       </c>
       <c r="B6">
         <v>21</v>
@@ -474,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/excel/specific_topic_scores.xlsx
+++ b/excel/specific_topic_scores.xlsx
@@ -7,10 +7,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="V21" sheetId="3" r:id="rId1"/>
+    <sheet name="F21" sheetId="3" r:id="rId1"/>
     <sheet name="basis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,25 +56,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -88,11 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,7 +363,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,8 +389,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>201511281</v>
+      <c r="A2" s="1">
+        <v>201310584</v>
       </c>
       <c r="B2">
         <v>19</v>
@@ -416,8 +403,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>201511438</v>
+      <c r="A3" s="1">
+        <v>201310916</v>
       </c>
       <c r="B3">
         <v>29</v>
@@ -430,8 +417,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>201411491</v>
+      <c r="A4" s="1">
+        <v>201410367</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -444,8 +431,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>201410679</v>
+      <c r="A5" s="1">
+        <v>201512691</v>
       </c>
       <c r="B5" s="1">
         <v>20</v>
@@ -458,8 +445,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>201411851</v>
+      <c r="A6" s="1">
+        <v>201710117</v>
       </c>
       <c r="B6">
         <v>21</v>
@@ -481,7 +468,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
